--- a/Резы/Респа для ВЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-51б на 2019 год.xlsx
@@ -1640,7 +1640,7 @@
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="H7" s="3" t="n">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -1666,7 +1666,9 @@
           <t>Мультимедийная техника и технология производства аудиовизуальных программ: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H8" s="9" t="n"/>
+      <c r="H8" s="10" t="n">
+        <v>308</v>
+      </c>
       <c r="I8" s="9" t="n"/>
     </row>
     <row r="9" ht="34" customHeight="1">
@@ -1869,7 +1871,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1886,7 +1888,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A12:A13"/>

--- a/Резы/Респа для ВЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-51б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -107,24 +107,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,42 +159,49 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -208,14 +215,7 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -250,25 +250,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -641,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -951,16 +951,62 @@
         </is>
       </c>
     </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E14" s="17" t="n"/>
+      <c r="F14" s="10" t="n">
+        <v>311</v>
+      </c>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="G8:G9"/>
@@ -979,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1116,8 +1162,8 @@
         </is>
       </c>
       <c r="D5" s="11" t="n"/>
-      <c r="E5" s="17" t="n"/>
-      <c r="F5" s="17" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
       <c r="G5" s="12" t="inlineStr">
         <is>
           <t>Мультимедийная техника и технология производства аудиовизуальных программ: лекция (общ)</t>
@@ -1151,8 +1197,8 @@
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="18" t="n"/>
+      <c r="E6" s="19" t="n"/>
+      <c r="F6" s="19" t="n"/>
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="3" t="inlineStr">
         <is>
@@ -1181,7 +1227,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n"/>
-      <c r="F7" s="17" t="n"/>
+      <c r="F7" s="18" t="n"/>
       <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Мультимедийная техника и технология производства и аудиовизуальных программ: лекция (общ)</t>
@@ -1229,8 +1275,8 @@
           <t>Основы конструирования и технологии производства РЭС: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="18" t="n"/>
+      <c r="E9" s="19" t="n"/>
+      <c r="F9" s="19" t="n"/>
       <c r="G9" s="5" t="n"/>
       <c r="H9" s="3" t="n">
         <v>329</v>
@@ -1261,8 +1307,8 @@
           <t>Основы конструирования и технологии производства РЭС: ПР (общ)</t>
         </is>
       </c>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="20" t="n"/>
+      <c r="F10" s="20" t="n"/>
+      <c r="G10" s="17" t="n"/>
       <c r="H10" s="10" t="inlineStr">
         <is>
           <t>329, 327</t>
@@ -1289,8 +1335,8 @@
           <t>Проектирование видеоинформационных систем: лекция (общ)</t>
         </is>
       </c>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="18" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="19" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="3" t="n">
         <v>305</v>
@@ -1316,9 +1362,9 @@
           <t>Проектирование видеоинформационных систем: ПР (общ)</t>
         </is>
       </c>
-      <c r="E12" s="19" t="n"/>
-      <c r="F12" s="19" t="n"/>
-      <c r="G12" s="20" t="n"/>
+      <c r="E12" s="20" t="n"/>
+      <c r="F12" s="20" t="n"/>
+      <c r="G12" s="17" t="n"/>
       <c r="H12" s="9" t="n"/>
       <c r="I12" s="9" t="n"/>
     </row>
@@ -1360,7 +1406,7 @@
           <t>Проектирование видеоиформационных систем: ПР (общ)</t>
         </is>
       </c>
-      <c r="F14" s="18" t="n"/>
+      <c r="F14" s="19" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="3" t="n">
         <v>305</v>
@@ -1386,9 +1432,9 @@
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E15" s="19" t="n"/>
-      <c r="F15" s="19" t="n"/>
-      <c r="G15" s="20" t="n"/>
+      <c r="E15" s="20" t="n"/>
+      <c r="F15" s="20" t="n"/>
+      <c r="G15" s="17" t="n"/>
       <c r="H15" s="10" t="n">
         <v>421</v>
       </c>
@@ -1398,8 +1444,53 @@
         </is>
       </c>
     </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="n"/>
+      <c r="H16" s="7" t="n"/>
+      <c r="I16" s="7" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="17" t="n"/>
+      <c r="H17" s="10" t="n">
+        <v>311</v>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1414,7 +1505,10 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A11:A12"/>
@@ -1433,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1521,8 +1615,8 @@
           <t>Мультимедийная техника и технология производства аудиовизуальных программ: ПР (общ)</t>
         </is>
       </c>
-      <c r="E2" s="18" t="n"/>
-      <c r="F2" s="18" t="n"/>
+      <c r="E2" s="19" t="n"/>
+      <c r="F2" s="19" t="n"/>
       <c r="G2" s="5" t="n"/>
       <c r="H2" s="3" t="n">
         <v>308</v>
@@ -1576,9 +1670,9 @@
           <t>Мультимедийная техника и технология производства аудиовизуальных программ: лекция (общ)</t>
         </is>
       </c>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="19" t="n"/>
-      <c r="G5" s="20" t="n"/>
+      <c r="E5" s="20" t="n"/>
+      <c r="F5" s="20" t="n"/>
+      <c r="G5" s="17" t="n"/>
       <c r="H5" s="10" t="n">
         <v>308</v>
       </c>
@@ -1607,8 +1701,8 @@
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="18" t="n"/>
+      <c r="E6" s="19" t="n"/>
+      <c r="F6" s="19" t="n"/>
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="3" t="inlineStr">
         <is>
@@ -1636,7 +1730,7 @@
           <t>Мультимедийная техника и технология производства и аудиовизуальных программ: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E7" s="18" t="n"/>
+      <c r="E7" s="19" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="H7" s="3" t="n">
@@ -1659,8 +1753,8 @@
         </is>
       </c>
       <c r="D8" s="11" t="n"/>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="18" t="n"/>
       <c r="G8" s="12" t="inlineStr">
         <is>
           <t>Мультимедийная техника и технология производства аудиовизуальных программ: ЛБ (общ)</t>
@@ -1704,8 +1798,8 @@
           <t>Основы конструирования и технологии производства РЭС: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="18" t="n"/>
-      <c r="F10" s="18" t="n"/>
+      <c r="E10" s="19" t="n"/>
+      <c r="F10" s="19" t="n"/>
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="3" t="n">
         <v>329</v>
@@ -1731,8 +1825,8 @@
           <t>Основы конструирования и технологии производства РЭС: ПР (общ)</t>
         </is>
       </c>
-      <c r="E11" s="19" t="n"/>
-      <c r="F11" s="20" t="n"/>
+      <c r="E11" s="20" t="n"/>
+      <c r="F11" s="17" t="n"/>
       <c r="G11" s="12" t="inlineStr">
         <is>
           <t>Основы конструирования и технологии производства РЭС: ЛБ (общ)</t>
@@ -1777,8 +1871,8 @@
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
-      <c r="F13" s="17" t="n"/>
-      <c r="G13" s="17" t="n"/>
+      <c r="F13" s="18" t="n"/>
+      <c r="G13" s="18" t="n"/>
       <c r="H13" s="10" t="n">
         <v>305</v>
       </c>
@@ -1838,7 +1932,7 @@
           <t>Проектирование видеоиформационных систем: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="F15" s="18" t="n"/>
+      <c r="F15" s="19" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="16" t="n"/>
       <c r="I15" s="16" t="n"/>
@@ -1858,9 +1952,9 @@
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E16" s="19" t="n"/>
-      <c r="F16" s="19" t="n"/>
-      <c r="G16" s="20" t="n"/>
+      <c r="E16" s="20" t="n"/>
+      <c r="F16" s="20" t="n"/>
+      <c r="G16" s="17" t="n"/>
       <c r="H16" s="10" t="n">
         <v>421</v>
       </c>
@@ -1870,8 +1964,53 @@
         </is>
       </c>
     </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="17" t="n"/>
+      <c r="H18" s="10" t="n">
+        <v>311</v>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1887,7 +2026,10 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A12:A13"/>
@@ -1907,7 +2049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2098,7 +2240,7 @@
           <t>Основы конструирования и технологии производства РЭС: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E7" s="20" t="n"/>
+      <c r="E7" s="17" t="n"/>
       <c r="F7" s="10" t="n">
         <v>327</v>
       </c>
@@ -2181,15 +2323,61 @@
         </is>
       </c>
     </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E12" s="17" t="n"/>
+      <c r="F12" s="10" t="n">
+        <v>311</v>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="G6:G7"/>
